--- a/hardware/artBoat_fullPartsList.xlsx
+++ b/hardware/artBoat_fullPartsList.xlsx
@@ -436,10 +436,10 @@
     <t>OSH Park</t>
   </si>
   <si>
-    <t>connects to all sensors</t>
-  </si>
-  <si>
-    <t>see Github hardware folder</t>
+    <t>connects to all sensors--only use lighstrand connector for artBoat</t>
+  </si>
+  <si>
+    <t>see SeeBoat Github hardware folder, controlBoard-0.5</t>
   </si>
   <si>
     <t>resistor SMD 0603 2.7K</t>
